--- a/sample_data/sample_data_2024-12.xlsx
+++ b/sample_data/sample_data_2024-12.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -630,7 +630,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -6847,7 +6847,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -6956,7 +6956,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -7392,7 +7392,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -8155,7 +8155,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -8264,7 +8264,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -8482,7 +8482,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -8918,7 +8918,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -9354,7 +9354,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -9572,7 +9572,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -9681,7 +9681,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -9790,7 +9790,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -9899,7 +9899,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -10008,7 +10008,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -10226,7 +10226,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -10335,7 +10335,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -10553,7 +10553,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -10662,7 +10662,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -10771,7 +10771,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -10880,7 +10880,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -11098,7 +11098,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -11425,7 +11425,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -11643,7 +11643,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -11970,7 +11970,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -12079,7 +12079,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -12188,7 +12188,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -12297,7 +12297,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -12406,7 +12406,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -12515,7 +12515,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -12624,7 +12624,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -12733,7 +12733,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -12842,7 +12842,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -12951,7 +12951,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -13060,7 +13060,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -13169,7 +13169,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -13278,7 +13278,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -13387,7 +13387,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -13496,7 +13496,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -13605,7 +13605,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -13714,7 +13714,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -13823,7 +13823,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -13932,7 +13932,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -14041,7 +14041,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -14150,7 +14150,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -14259,7 +14259,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -14368,7 +14368,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -14477,7 +14477,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -14586,7 +14586,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -14695,7 +14695,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -14804,7 +14804,7 @@
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -14913,7 +14913,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -15022,7 +15022,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -15131,7 +15131,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -15349,7 +15349,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -15458,7 +15458,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -15567,7 +15567,7 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -15676,7 +15676,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -15785,7 +15785,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -15894,7 +15894,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -16003,7 +16003,7 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -16112,7 +16112,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -16221,7 +16221,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -16330,7 +16330,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -16439,7 +16439,7 @@
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -16548,7 +16548,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -16657,7 +16657,7 @@
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -16766,7 +16766,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -16875,7 +16875,7 @@
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -17093,7 +17093,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -17202,7 +17202,7 @@
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -17311,7 +17311,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -17420,7 +17420,7 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -17529,7 +17529,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -17638,7 +17638,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -17747,7 +17747,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -17856,7 +17856,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -17965,7 +17965,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -18074,7 +18074,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -18183,7 +18183,7 @@
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
@@ -18292,7 +18292,7 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -18401,7 +18401,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -18510,7 +18510,7 @@
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
@@ -18619,7 +18619,7 @@
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
@@ -18728,7 +18728,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -18837,7 +18837,7 @@
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -19055,7 +19055,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -19164,7 +19164,7 @@
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
@@ -19273,7 +19273,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -19382,7 +19382,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -19491,7 +19491,7 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
@@ -19600,7 +19600,7 @@
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
@@ -19709,7 +19709,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -19818,7 +19818,7 @@
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
@@ -19927,7 +19927,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -20036,7 +20036,7 @@
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -20145,7 +20145,7 @@
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
@@ -20254,7 +20254,7 @@
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
@@ -20363,7 +20363,7 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
@@ -20472,7 +20472,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -20581,7 +20581,7 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
@@ -20690,7 +20690,7 @@
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -20799,7 +20799,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -20908,7 +20908,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -21017,7 +21017,7 @@
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
@@ -21126,7 +21126,7 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
@@ -21235,7 +21235,7 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
@@ -21344,7 +21344,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -21453,7 +21453,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -21562,7 +21562,7 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
@@ -21671,7 +21671,7 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
@@ -21780,7 +21780,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -21889,7 +21889,7 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
@@ -21998,7 +21998,7 @@
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -22107,7 +22107,7 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
@@ -22216,7 +22216,7 @@
       </c>
       <c r="N200" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O200" t="inlineStr">
@@ -22325,7 +22325,7 @@
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
@@ -22434,7 +22434,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -22543,7 +22543,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
@@ -22761,7 +22761,7 @@
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
@@ -22870,7 +22870,7 @@
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -22979,7 +22979,7 @@
       </c>
       <c r="N207" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O207" t="inlineStr">
@@ -23088,7 +23088,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -23197,7 +23197,7 @@
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
@@ -23306,7 +23306,7 @@
       </c>
       <c r="N210" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O210" t="inlineStr">
@@ -23415,7 +23415,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -23524,7 +23524,7 @@
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -23633,7 +23633,7 @@
       </c>
       <c r="N213" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O213" t="inlineStr">
@@ -23742,7 +23742,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -23851,7 +23851,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -23960,7 +23960,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -24069,7 +24069,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -24178,7 +24178,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -24287,7 +24287,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -24396,7 +24396,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -24505,7 +24505,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -24614,7 +24614,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -24723,7 +24723,7 @@
       </c>
       <c r="N223" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O223" t="inlineStr">
@@ -24832,7 +24832,7 @@
       </c>
       <c r="N224" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O224" t="inlineStr">
@@ -24941,7 +24941,7 @@
       </c>
       <c r="N225" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O225" t="inlineStr">
@@ -25050,7 +25050,7 @@
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
@@ -25159,7 +25159,7 @@
       </c>
       <c r="N227" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O227" t="inlineStr">
@@ -25268,7 +25268,7 @@
       </c>
       <c r="N228" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O228" t="inlineStr">
@@ -25377,7 +25377,7 @@
       </c>
       <c r="N229" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O229" t="inlineStr">
@@ -25486,7 +25486,7 @@
       </c>
       <c r="N230" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O230" t="inlineStr">
@@ -25595,7 +25595,7 @@
       </c>
       <c r="N231" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O231" t="inlineStr">
@@ -25704,7 +25704,7 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
@@ -25813,7 +25813,7 @@
       </c>
       <c r="N233" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O233" t="inlineStr">
@@ -25922,7 +25922,7 @@
       </c>
       <c r="N234" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O234" t="inlineStr">
@@ -26031,7 +26031,7 @@
       </c>
       <c r="N235" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O235" t="inlineStr">
@@ -26140,7 +26140,7 @@
       </c>
       <c r="N236" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O236" t="inlineStr">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="N237" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O237" t="inlineStr">
@@ -26358,7 +26358,7 @@
       </c>
       <c r="N238" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O238" t="inlineStr">
@@ -26467,7 +26467,7 @@
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
@@ -26576,7 +26576,7 @@
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
@@ -26685,7 +26685,7 @@
       </c>
       <c r="N241" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O241" t="inlineStr">
@@ -26794,7 +26794,7 @@
       </c>
       <c r="N242" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O242" t="inlineStr">
@@ -26903,7 +26903,7 @@
       </c>
       <c r="N243" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O243" t="inlineStr">
@@ -27012,7 +27012,7 @@
       </c>
       <c r="N244" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>微众批量业务</t>
         </is>
       </c>
       <c r="O244" t="inlineStr">
@@ -27121,7 +27121,7 @@
       </c>
       <c r="N245" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O245" t="inlineStr">
@@ -27230,7 +27230,7 @@
       </c>
       <c r="N246" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O246" t="inlineStr">
@@ -27339,7 +27339,7 @@
       </c>
       <c r="N247" t="inlineStr">
         <is>
-          <t>项目贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O247" t="inlineStr">
@@ -27448,7 +27448,7 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
@@ -27557,7 +27557,7 @@
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>知识产权质押贷</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">
@@ -27666,7 +27666,7 @@
       </c>
       <c r="N250" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O250" t="inlineStr">
@@ -27775,7 +27775,7 @@
       </c>
       <c r="N251" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O251" t="inlineStr">
